--- a/data/trans_camb/P45C_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3928723400731385</v>
+        <v>0.2908380088509619</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3663322678293666</v>
+        <v>-0.4255555510204734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3968691681325774</v>
+        <v>-0.5003811850494511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9665415089893572</v>
+        <v>0.9647952053138404</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2684149069102301</v>
+        <v>0.263462769039055</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7860653934626833</v>
+        <v>0.8211649736208011</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9836015034668497</v>
+        <v>0.9261560513801186</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1672500162924665</v>
+        <v>0.1328095398763648</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.432201289490159</v>
+        <v>0.4870379272966384</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.898798658345309</v>
+        <v>2.679717106603019</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.481551639705898</v>
+        <v>1.429345062191849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.650749915318002</v>
+        <v>1.476080441316836</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.373831188223009</v>
+        <v>3.35819403643164</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.029154857193879</v>
+        <v>1.921181452561857</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.834569462725899</v>
+        <v>2.693759871726904</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.715536972537237</v>
+        <v>2.563212612133397</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.394012358217582</v>
+        <v>1.348153236385514</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.796284763187016</v>
+        <v>1.906794615126757</v>
       </c>
     </row>
     <row r="7">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2225942108604198</v>
+        <v>-0.1075414086604429</v>
       </c>
       <c r="D8" s="6" t="n">
+        <v>-0.8697967590221685</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>-1</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>-0.7958406679401442</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>0.8601132541285526</v>
+        <v>0.8621791197595967</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05123548345293669</v>
+        <v>-0.1202033812165915</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3365767627800861</v>
+        <v>0.3841303722693087</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>211246.6676468052</v>
+        <v>107580.0215357698</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>145236.4974671006</v>
+        <v>73211.57604190153</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>127401.8019535408</v>
+        <v>69905.42079095008</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>29.05932191520147</v>
+        <v>29.42249115168408</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>16.4931780668224</v>
+        <v>15.36055402351626</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>22.27298874761443</v>
+        <v>23.78041716479066</v>
       </c>
     </row>
     <row r="10">
@@ -848,7 +848,7 @@
         <v>-0.7329890232464474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4141618050513381</v>
+        <v>0.4141618050513385</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.08878290211838044</v>
@@ -866,7 +866,7 @@
         <v>-0.5136165181388397</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2507648076583865</v>
+        <v>0.2507648076583862</v>
       </c>
     </row>
     <row r="11">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.116792056458636</v>
+        <v>-1.139967646581014</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.688055550907353</v>
+        <v>-1.815782185381546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9105043776783478</v>
+        <v>-0.8541358656349705</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.20474458738466</v>
+        <v>-1.236614306280995</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.350413538195038</v>
+        <v>-1.379040499954922</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.057773430541675</v>
+        <v>-0.9232795659844657</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9059571801403969</v>
+        <v>-0.8417930846941443</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.330629109834446</v>
+        <v>-1.246223204840047</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6166912994907157</v>
+        <v>-0.5970263377869274</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.020793832619345</v>
+        <v>1.061763624596427</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1739902890863545</v>
+        <v>0.2316109268488573</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.795228882018923</v>
+        <v>1.782875889157458</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9655684702261348</v>
+        <v>0.9585113851688494</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7218390363832022</v>
+        <v>0.7199147361410099</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.117984665054895</v>
+        <v>1.181077039700283</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6876881453414809</v>
+        <v>0.7373133440785474</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1726024376913425</v>
+        <v>0.2689490441587373</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.080298535618466</v>
+        <v>1.118177708655884</v>
       </c>
     </row>
     <row r="13">
@@ -953,7 +953,7 @@
         <v>-0.5049212875917521</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2852963758606455</v>
+        <v>0.2852963758606458</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.05743567835641557</v>
@@ -971,7 +971,7 @@
         <v>-0.3426646793868507</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1673003873184203</v>
+        <v>0.1673003873184201</v>
       </c>
     </row>
     <row r="14">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5966345417513694</v>
+        <v>-0.5801703061355554</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8690585743954498</v>
+        <v>-0.8570762175638045</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.491014156521525</v>
+        <v>-0.4368902628979633</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.58799266708627</v>
+        <v>-0.5913147328038308</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6882068784949383</v>
+        <v>-0.6609144010480656</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4961472764472893</v>
+        <v>-0.4480303407001789</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.471780121531959</v>
+        <v>-0.4362671736506599</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6508975262520602</v>
+        <v>-0.6626172041161239</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3325347025883513</v>
+        <v>-0.3258666208633011</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.14191976440918</v>
+        <v>1.331269888924809</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2507185298516454</v>
+        <v>0.3538060738635126</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.792087905937402</v>
+        <v>1.844112731358383</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9097249605631267</v>
+        <v>0.9814486215942496</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7638587847858825</v>
+        <v>0.730689846975749</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.15142706040418</v>
+        <v>1.340005941121132</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6189370421634014</v>
+        <v>0.6823784614658797</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2594713436284259</v>
+        <v>0.2850833892507781</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9792064970727855</v>
+        <v>0.9555035116181773</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1062,7 @@
         <v>-1.17864001109029</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.53582001228413</v>
+        <v>-0.5358200122841303</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.781174848060545</v>
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.13739155009047</v>
+        <v>-3.363695520823255</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.993506562545875</v>
+        <v>-2.9355156456051</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.264966109241152</v>
+        <v>-2.357261050890274</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.192941021757824</v>
+        <v>-3.317670939194687</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.748565746753969</v>
+        <v>-2.862731624791871</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.765576671911144</v>
+        <v>-1.642920771908343</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.697811167800253</v>
+        <v>-2.840281822463058</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.357994625041902</v>
+        <v>-2.408319383358412</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.557881375086162</v>
+        <v>-1.574945185123243</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.02578865944010292</v>
+        <v>0.01247041216578172</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4247543177216315</v>
+        <v>0.4044810395262721</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.37244736874867</v>
+        <v>1.403642832308207</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.3737041786888357</v>
+        <v>-0.6607060035453794</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1033475278365245</v>
+        <v>0.01984302900284019</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.384350548381657</v>
+        <v>1.535904124091654</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.6522064598763011</v>
+        <v>-0.6526372695264054</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.1500311526868554</v>
+        <v>-0.1977883266428461</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9364348681793906</v>
+        <v>0.965770601207798</v>
       </c>
     </row>
     <row r="19">
@@ -1167,7 +1167,7 @@
         <v>-0.4222252866602556</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1919472919264723</v>
+        <v>-0.1919472919264724</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.6945017389976019</v>
@@ -1196,31 +1196,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7966663322657132</v>
+        <v>-0.8043058956285558</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7812212022966325</v>
+        <v>-0.7598469119546523</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.631482348468821</v>
+        <v>-0.6285401126776474</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.9120974421852752</v>
+        <v>-0.9081137957478901</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7806297032567164</v>
+        <v>-0.7938044033892467</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5287709653779438</v>
+        <v>-0.4920155972193523</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7824870207611655</v>
+        <v>-0.7990138759608331</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7056760026377643</v>
+        <v>-0.6842212727455462</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4631019306936669</v>
+        <v>-0.4741077746148306</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1231,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05053785106615546</v>
+        <v>0.1341473932634135</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2660774095205528</v>
+        <v>0.2627439826163134</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8326575273538345</v>
+        <v>0.8020688729162058</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.169130212682661</v>
+        <v>-0.2996042376334113</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09633192414977036</v>
+        <v>0.08844054491061058</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8676684801639932</v>
+        <v>0.974237276701774</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2621474957328028</v>
+        <v>-0.2680205150149758</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.05056381004511677</v>
+        <v>-0.03040759623546802</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4798834797117449</v>
+        <v>0.4917378624239544</v>
       </c>
     </row>
     <row r="22">
@@ -1285,7 +1285,7 @@
         <v>-1.335363034157583</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.570964810934841</v>
+        <v>-1.57096481093484</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.7526078903948572</v>
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.552665064393076</v>
+        <v>-2.571693314373638</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.643864724527833</v>
+        <v>-2.743489654046075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.611651736087003</v>
+        <v>-1.698461743707054</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.375187038041214</v>
+        <v>-1.437685326377758</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.552778588312846</v>
+        <v>-2.410433133744787</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.670976307679882</v>
+        <v>-2.670112196689602</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.71457318597441</v>
+        <v>-1.691456603508993</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.209244158529808</v>
+        <v>-2.218610545588512</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.877169612094771</v>
+        <v>-1.866846775357462</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.4017457704491301</v>
+        <v>-0.3298352403869163</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5101809175904753</v>
+        <v>-0.5502404818641363</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.829339505797176</v>
+        <v>0.8633932931118224</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.092806404142314</v>
+        <v>1.163783556623678</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.3221517398765688</v>
+        <v>-0.2750819405941707</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.627235555754547</v>
+        <v>-0.6670422498211421</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.007766030528390916</v>
+        <v>0.0526022924229678</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.7115696434874437</v>
+        <v>-0.7389908000654823</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.3024443298966291</v>
+        <v>-0.2718706383801798</v>
       </c>
     </row>
     <row r="25">
@@ -1390,7 +1390,7 @@
         <v>-0.6018931048245465</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.708086762503638</v>
+        <v>-0.7080867625036379</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3501330593751107</v>
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8758346807227468</v>
+        <v>-0.8775399147486502</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9162030706387448</v>
+        <v>-0.9119918512707332</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.628967051640918</v>
+        <v>-0.6238606705614427</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4806194909133946</v>
+        <v>-0.513632595418125</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8452926979176513</v>
+        <v>-0.8303086711010836</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8757032031373765</v>
+        <v>-0.8760348201800693</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6063845107580869</v>
+        <v>-0.6139417867454633</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8224052769419102</v>
+        <v>-0.8106249810722325</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7041572522088326</v>
+        <v>-0.6932145952510691</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1662308649814805</v>
+        <v>-0.1499558142293548</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2991611715042352</v>
+        <v>-0.2644653055993827</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6201228558790118</v>
+        <v>0.6120919199172282</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.661074891250525</v>
+        <v>0.8002742348321329</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1512477553120028</v>
+        <v>-0.1463200551218072</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3926905322946453</v>
+        <v>-0.3938761240268973</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01105856699662358</v>
+        <v>0.05018241656344213</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3640206369899266</v>
+        <v>-0.4049167979803116</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1448783142003017</v>
+        <v>-0.1327971895854005</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1499,7 @@
         <v>-0.548258206620697</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.1323261403962916</v>
+        <v>-0.1323261403962914</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.2306311169269682</v>
@@ -1508,7 +1508,7 @@
         <v>-0.6574632925738183</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.0579328183261868</v>
+        <v>-0.05793281832618645</v>
       </c>
     </row>
     <row r="29">
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.014748460152798</v>
+        <v>-1.032348722827459</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.316559077025508</v>
+        <v>-1.386569472342259</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5980083940780869</v>
+        <v>-0.6750172553238825</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.6783059571732468</v>
+        <v>-0.7369185664447607</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.079415942113337</v>
+        <v>-1.119119366164959</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.744401389555382</v>
+        <v>-0.6984101083121081</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6874732829795042</v>
+        <v>-0.6455348245999226</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.060872418085701</v>
+        <v>-1.072391503843545</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5264833950831016</v>
+        <v>-0.4856073597625907</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2174337089501505</v>
+        <v>0.2322997633754739</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1691663878851074</v>
+        <v>-0.1938173589363522</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6784623715310255</v>
+        <v>0.6910447912188673</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5550359649537686</v>
+        <v>0.5785031612495072</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07588958489533514</v>
+        <v>0.05264429045336145</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4471347046056806</v>
+        <v>0.485539812396803</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2062950466537603</v>
+        <v>0.1874980308100096</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.2447266064799349</v>
+        <v>-0.2273423049885029</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3643482851910915</v>
+        <v>0.4054713680889056</v>
       </c>
     </row>
     <row r="31">
@@ -1604,7 +1604,7 @@
         <v>-0.3279754325300903</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.07915927679225154</v>
+        <v>-0.07915927679225143</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1373512787071909</v>
@@ -1613,7 +1613,7 @@
         <v>-0.3915491766301832</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.03450161791798829</v>
+        <v>-0.03450161791798809</v>
       </c>
     </row>
     <row r="32">
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5142072504914484</v>
+        <v>-0.4908125755958491</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6713478158528916</v>
+        <v>-0.6557907139155533</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3109763299690645</v>
+        <v>-0.3390271656327623</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3369390505422589</v>
+        <v>-0.3561412878938148</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5481349543971563</v>
+        <v>-0.5658032456565815</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3564418519546159</v>
+        <v>-0.3473485274165343</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3552900113942863</v>
+        <v>-0.340295059886613</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5594935695478733</v>
+        <v>-0.5582885924475061</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2724115405632348</v>
+        <v>-0.2577636860037211</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1631975440015032</v>
+        <v>0.1599839969158986</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1198420066871283</v>
+        <v>-0.06886185505148487</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4762799075908181</v>
+        <v>0.5349567743197722</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4220885273588207</v>
+        <v>0.4537656963558626</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.08247260734904781</v>
+        <v>0.04270484048103939</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3620605267247314</v>
+        <v>0.4010278329897632</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1449133362257181</v>
+        <v>0.1327538764747536</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1594432949287819</v>
+        <v>-0.1543053854279316</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2591384422228746</v>
+        <v>0.2860145860890275</v>
       </c>
     </row>
     <row r="34">
